--- a/biology/Zoologie/Deiléphile_du_tithymale/Deiléphile_du_tithymale.xlsx
+++ b/biology/Zoologie/Deiléphile_du_tithymale/Deiléphile_du_tithymale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Deil%C3%A9phile_du_tithymale</t>
+          <t>Deiléphile_du_tithymale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyles tithymali
 Le deiléphile du tithymale (Hyles tithymali) est une espèce de lépidoptères appartenant à la famille des Sphingidae, sous-famille des Macroglossinae  et du genre Hyles.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Deil%C3%A9phile_du_tithymale</t>
+          <t>Deiléphile_du_tithymale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure du mâle varie de 30 à 38 mm.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Deil%C3%A9phile_du_tithymale</t>
+          <t>Deiléphile_du_tithymale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Répartition
 L'espèce est connue en Afrique du nord, les îles Canaries , à Madère, dans les îles de la mer Méditerranée et dans les montagnes au Yémen.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Deil%C3%A9phile_du_tithymale</t>
+          <t>Deiléphile_du_tithymale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Période de vol : d’avril à octobre en deux générations.
 Plantes hôtes : euphorbes, Mercurialis annua, Vitis et Tithymalus.</t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Deil%C3%A9phile_du_tithymale</t>
+          <t>Deiléphile_du_tithymale</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,11 +625,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été décrite par l’entomologiste français Jean-Baptiste Alphonse Dechauffour de Boisduval, en 1832[1] sous le nom initial de Deilephila tithymali.
-Synonymie
-Deilephila tithymali Boisduval, 1834 Protonyme
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite par l’entomologiste français Jean-Baptiste Alphonse Dechauffour de Boisduval, en 1832 sous le nom initial de Deilephila tithymali.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Deiléphile_du_tithymale</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deil%C3%A9phile_du_tithymale</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Deilephila tithymali Boisduval, 1834 Protonyme
 Deilephila calverleyi Grote, 1865
 Hyles cretica
 Deilephila tithymali deserticola Staudinger, 1901
@@ -624,9 +679,43 @@
 Celerio euphorbiae velutina Stauder, 1913
 Celerio euphorbiae extensa Closs, 1917
 Celerio euphorbiae rosea Closs, 1917
-Celerio deserticola saharae Günther, 1939
-Liste des sous-espèces
-Hyles tithymale tithymali (Boisduval, 1834) (Tenerife, Gran Canaria, Lanzarote et Fuerteventura îles)
+Celerio deserticola saharae Günther, 1939</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Deiléphile_du_tithymale</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deil%C3%A9phile_du_tithymale</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyles tithymale tithymali (Boisduval, 1834) (Tenerife, Gran Canaria, Lanzarote et Fuerteventura îles)
 Hyles tithymale mauretanica (Staudinger, 1871) (Afrique du Nord)
 Hyles tithymale deserticola (Staudinger, 1901) (Afrique du Nord)
 Hyles tithymale gecki (de Freina, 1991) (Madeira island)
